--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints0.800000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints0.800000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>8.829083050694948e-26</v>
+        <v>8.670285532087185e-26</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>8.783349460609516e-26</v>
+        <v>8.84990821072432e-26</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>8.822406849857564e-26</v>
+        <v>9.062321960052796e-26</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>8.939697955643974e-26</v>
+        <v>9.305469250308504e-26</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>9.128665515173726e-26</v>
+        <v>9.577292551728146e-26</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>9.382752265651811e-26</v>
+        <v>9.875734334548166e-26</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>9.69540094428366e-26</v>
+        <v>1.019873706900546e-25</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>1.006005428827344e-25</v>
+        <v>1.054424322533561e-25</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>1.04701550348265e-25</v>
+        <v>1.091019527377548e-25</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>1.091914592114846e-25</v>
+        <v>1.129453568456203e-25</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>1.14004696844431e-25</v>
+        <v>1.169520692793071e-25</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>1.190756906191599e-25</v>
+        <v>1.211015147411843e-25</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>1.243388679077282e-25</v>
+        <v>1.253731179336223e-25</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>1.297286560821717e-25</v>
+        <v>1.297463035589742e-25</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>1.351794825145472e-25</v>
+        <v>1.342004963196101e-25</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>1.406257745769047e-25</v>
+        <v>1.387151209178944e-25</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>1.460019596413009e-25</v>
+        <v>1.432696020561975e-25</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>1.512424650797715e-25</v>
+        <v>1.47843364436872e-25</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>1.562835419949057e-25</v>
+        <v>1.524159912374333e-25</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>1.610981162349715e-25</v>
+        <v>1.5697025252926e-25</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>1.656930790658236e-25</v>
+        <v>1.614918698474215e-25</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>1.70076602617578e-25</v>
+        <v>1.659666760291654e-25</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>1.74256859020344e-25</v>
+        <v>1.703805039117325e-25</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.782420204042361e-25</v>
+        <v>1.747191863323699e-25</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.820402588993533e-25</v>
+        <v>1.789685561283073e-25</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.856597466358103e-25</v>
+        <v>1.831144461367917e-25</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.891086557437209e-25</v>
+        <v>1.871426891950694e-25</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.923951583531856e-25</v>
+        <v>1.910391181403712e-25</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.955274265943183e-25</v>
+        <v>1.947895658099435e-25</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.985136325972284e-25</v>
+        <v>1.983798650410275e-25</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>2.013619484920291e-25</v>
+        <v>2.017958486708689e-25</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>2.040805464088221e-25</v>
+        <v>2.050233495366997e-25</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>2.066775984777208e-25</v>
+        <v>2.080482004757659e-25</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>2.091612768288377e-25</v>
+        <v>2.108562343253122e-25</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>2.115373329471257e-25</v>
+        <v>2.1343430741932e-25</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>2.137953175702883e-25</v>
+        <v>2.157761260888301e-25</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>2.159181323010824e-25</v>
+        <v>2.178782080509259e-25</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>2.17888658469498e-25</v>
+        <v>2.197370795944069e-25</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>2.196897774055335e-25</v>
+        <v>2.213492670080812e-25</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>2.213043704391846e-25</v>
+        <v>2.227112965807538e-25</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>2.227153189004484e-25</v>
+        <v>2.238196946012311e-25</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>2.239055041193169e-25</v>
+        <v>2.246709873583153e-25</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>2.248578074257875e-25</v>
+        <v>2.25261701140813e-25</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>2.255551101498565e-25</v>
+        <v>2.255883622375297e-25</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>2.259802936215177e-25</v>
+        <v>2.256474969372695e-25</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>2.261162391707676e-25</v>
+        <v>2.254356315288381e-25</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>2.25945828127602e-25</v>
+        <v>2.249492923010407e-25</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>2.254519418220153e-25</v>
+        <v>2.24185005542681e-25</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>2.246174615840045e-25</v>
+        <v>2.231392975425663e-25</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>2.234279946684518e-25</v>
+        <v>2.218105427890964e-25</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>2.219041927719125e-25</v>
+        <v>2.2022087619167e-25</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>2.200910195059793e-25</v>
+        <v>2.184089163389541e-25</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>2.180339275299122e-25</v>
+        <v>2.164136133979721e-25</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>2.157783695029695e-25</v>
+        <v>2.142739175357464e-25</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>2.13369798084419e-25</v>
+        <v>2.120287789193082e-25</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>2.108536659335193e-25</v>
+        <v>2.097171477156802e-25</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>2.082754257095322e-25</v>
+        <v>2.073779740918876e-25</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>2.056805300717157e-25</v>
+        <v>2.050502082149529e-25</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>2.031144316793384e-25</v>
+        <v>2.027728002519077e-25</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>2.006225831916585e-25</v>
+        <v>2.005847003697742e-25</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>1.982504372679345e-25</v>
+        <v>1.985248587355752e-25</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>1.960421683045733e-25</v>
+        <v>1.966310207197839e-25</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>1.940105137170923e-25</v>
+        <v>1.949113015068504e-25</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>1.921355988583743e-25</v>
+        <v>1.93343078549574e-25</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>1.903960357028672e-25</v>
+        <v>1.919023029015496e-25</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>1.887704362250255e-25</v>
+        <v>1.90564925616377e-25</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>1.872374123992972e-25</v>
+        <v>1.893068977476509e-25</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>1.857755762001303e-25</v>
+        <v>1.881041703489662e-25</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>1.843635396019789e-25</v>
+        <v>1.869326944739223e-25</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>1.829799145792909e-25</v>
+        <v>1.857684211761142e-25</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>1.816033131065148e-25</v>
+        <v>1.845873015091366e-25</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>1.802123471581042e-25</v>
+        <v>1.83365286526589e-25</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>1.787856287085075e-25</v>
+        <v>1.820783272820664e-25</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>1.773017697321746e-25</v>
+        <v>1.807023748291652e-25</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>1.757393822035535e-25</v>
+        <v>1.792133802214797e-25</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>1.740770780970987e-25</v>
+        <v>1.775872945126103e-25</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>1.722934693872579e-25</v>
+        <v>1.758000687561514e-25</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>1.703671680484789e-25</v>
+        <v>1.73827654005697e-25</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>1.682767860552166e-25</v>
+        <v>1.716460013148484e-25</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>1.660009353819187e-25</v>
+        <v>1.692310617371997e-25</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>1.635182280030354e-25</v>
+        <v>1.665587863263473e-25</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>1.608072758930131e-25</v>
+        <v>1.636051261358835e-25</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>1.578466910263089e-25</v>
+        <v>1.603460322194126e-25</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>1.546150853773694e-25</v>
+        <v>1.567574556305271e-25</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>1.510910709206402e-25</v>
+        <v>1.528153474228183e-25</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>1.472532596305804e-25</v>
+        <v>1.484956586498927e-25</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>1.430802634816356e-25</v>
+        <v>1.43774340365342e-25</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>1.385696772476183e-25</v>
+        <v>1.386523778256884e-25</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>1.338177710031977e-25</v>
+        <v>1.332608876478683e-25</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>1.289527766836018e-25</v>
+        <v>1.277731372237264e-25</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>1.241029426220954e-25</v>
+        <v>1.223624155705718e-25</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>1.193965171519435e-25</v>
+        <v>1.172020117057139e-25</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>1.149617486064296e-25</v>
+        <v>1.124652146464825e-25</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>1.109268853188185e-25</v>
+        <v>1.083253134101868e-25</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>1.07420175622377e-25</v>
+        <v>1.049555970141387e-25</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>1.045698678503853e-25</v>
+        <v>1.025293544756635e-25</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>1.025042103361097e-25</v>
+        <v>1.012198748120723e-25</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>1.013514514128209e-25</v>
+        <v>1.012004470406809e-25</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>1.012398394137908e-25</v>
+        <v>1.026443601788084e-25</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>1.022976226722906e-25</v>
+        <v>1.057249032437672e-25</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>3.730782706941943e-27</v>
+        <v>3.7533963329184e-27</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>4.800569954521233e-27</v>
+        <v>4.843141776786032e-27</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>4.565807655920333e-27</v>
+        <v>4.673922950350394e-27</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>6.158699109558638e-27</v>
+        <v>6.204818278431135e-27</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>7.673273636822678e-27</v>
+        <v>7.639464727195214e-27</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>7.808338670916046e-27</v>
+        <v>7.777386101436108e-27</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>1.264016255863135e-26</v>
+        <v>1.268710581918003e-26</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>3.31735941542451e-26</v>
+        <v>3.329325863952148e-26</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>6.667309291845174e-26</v>
+        <v>6.685470474290681e-26</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>8.210309179817679e-26</v>
+        <v>8.240836847633663e-26</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>8.586144273390703e-26</v>
+        <v>8.604469963720372e-26</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>8.554609413400428e-26</v>
+        <v>8.539887350051095e-26</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>8.202787877211963e-26</v>
+        <v>8.18131247135787e-26</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>7.719031142595144e-26</v>
+        <v>7.716439063723963e-26</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>7.338342505942328e-26</v>
+        <v>7.351252512379329e-26</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>7.082798467146417e-26</v>
+        <v>7.087519369289446e-26</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>6.940720780053602e-26</v>
+        <v>6.920410547780069e-26</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>7.007206758477758e-26</v>
+        <v>7.013432263015266e-26</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>6.793740830880485e-26</v>
+        <v>6.810974015944929e-26</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>6.56254291723584e-26</v>
+        <v>6.553675816835423e-26</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>6.585564212239142e-26</v>
+        <v>6.569372187631087e-26</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>6.494000629255392e-26</v>
+        <v>6.481076962282222e-26</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>6.324182988072883e-26</v>
+        <v>6.317784689203587e-26</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>6.162341882557632e-26</v>
+        <v>6.161091233085145e-26</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>5.996573394735249e-26</v>
+        <v>5.998542374959859e-26</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>5.804342435258933e-26</v>
+        <v>5.807495201402479e-26</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>5.564079737408809e-26</v>
+        <v>5.566350588713538e-26</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>5.264070559267451e-26</v>
+        <v>5.264159455400681e-26</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>4.898361326379752e-26</v>
+        <v>4.896198964043751e-26</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>4.461513251679059e-26</v>
+        <v>4.458252167513178e-26</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>3.965281501741491e-26</v>
+        <v>3.962722880362466e-26</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>3.44375577429249e-26</v>
+        <v>3.443604885761305e-26</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>2.932518318489661e-26</v>
+        <v>2.936334761373861e-26</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>2.463162114678434e-26</v>
+        <v>2.472109393145363e-26</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>2.040971386814441e-26</v>
+        <v>2.054165401154196e-26</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>1.660607720361928e-26</v>
+        <v>1.674459285761416e-26</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>1.321595697866819e-26</v>
+        <v>1.331538843986242e-26</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>1.033558196241356e-26</v>
+        <v>1.037620848196011e-26</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>8.068205722913763e-27</v>
+        <v>8.059764002185086e-27</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>6.409216731879234e-27</v>
+        <v>6.373223954865823e-27</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>5.255078014822316e-27</v>
+        <v>5.208619913350149e-27</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>4.498591305969861e-27</v>
+        <v>4.453722146075645e-27</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>4.032558339549632e-27</v>
+        <v>3.996300921480792e-27</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>3.749780849788329e-27</v>
+        <v>3.724126508003012e-27</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>3.547203990516588e-27</v>
+        <v>3.529342472230738e-27</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>3.378693831160062e-27</v>
+        <v>3.364171291102258e-27</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>3.239474705671305e-27</v>
+        <v>3.224488278843567e-27</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>3.125701963505059e-27</v>
+        <v>3.107151418288611e-27</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>3.033530954116111e-27</v>
+        <v>3.009018692271379e-27</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>2.959117026959367e-27</v>
+        <v>2.926948083625985e-27</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>2.898615531489608e-27</v>
+        <v>2.85779757518641e-27</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>2.848181817161657e-27</v>
+        <v>2.798425149786683e-27</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>2.803971233430319e-27</v>
+        <v>2.745688790260809e-27</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>2.762647528041359e-27</v>
+        <v>2.696854097926276e-27</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>2.7233930541115e-27</v>
+        <v>2.651206016258066e-27</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>2.686168668086035e-27</v>
+        <v>2.608653669323045e-27</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>2.650935454321992e-27</v>
+        <v>2.569106363920878e-27</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>2.617654497176354e-27</v>
+        <v>2.532473406851177e-27</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>2.586286881006117e-27</v>
+        <v>2.49866410491357e-27</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>2.556793690168266e-27</v>
+        <v>2.467587764907675e-27</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>2.529136009019825e-27</v>
+        <v>2.439153693633148e-27</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>2.503274921917778e-27</v>
+        <v>2.413271197889605e-27</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>2.47917151321911e-27</v>
+        <v>2.389849584476666e-27</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>2.456786867280843e-27</v>
+        <v>2.368798160193982e-27</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>2.436082068459961e-27</v>
+        <v>2.350026231841172e-27</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>2.417018201113463e-27</v>
+        <v>2.333443106217864e-27</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>2.399556349598337e-27</v>
+        <v>2.318958090123683e-27</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>2.383657598271598e-27</v>
+        <v>2.306480490358271e-27</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>2.369283031490234e-27</v>
+        <v>2.295919613721253e-27</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>2.356393733611238e-27</v>
+        <v>2.287184767012252e-27</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>2.344950788991618e-27</v>
+        <v>2.280185257030908e-27</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>2.334915281988365e-27</v>
+        <v>2.274830390576845e-27</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>2.326248296958478e-27</v>
+        <v>2.271029474449694e-27</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>2.318910918258949e-27</v>
+        <v>2.268691815449082e-27</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>2.312864230246784e-27</v>
+        <v>2.267726720374644e-27</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>2.308069317278977e-27</v>
+        <v>2.268043496026006e-27</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>2.304487263712523e-27</v>
+        <v>2.269551449202799e-27</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>2.302079153904422e-27</v>
+        <v>2.272159886704651e-27</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>2.300806072211671e-27</v>
+        <v>2.275778115331194e-27</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>2.300629102991267e-27</v>
+        <v>2.280315441882055e-27</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>2.301509330600207e-27</v>
+        <v>2.285681173156869e-27</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>2.303407839395489e-27</v>
+        <v>2.29178461595526e-27</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>2.30628571373411e-27</v>
+        <v>2.29853507707686e-27</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>2.310104037973068e-27</v>
+        <v>2.305841863321298e-27</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>2.314823896469361e-27</v>
+        <v>2.313614281488208e-27</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>2.320406373579983e-27</v>
+        <v>2.321761638377213e-27</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>2.326812553661935e-27</v>
+        <v>2.330193240787946e-27</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>2.334003528187013e-27</v>
+        <v>2.338818408498566e-27</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>2.341965810060961e-27</v>
+        <v>2.347592834042787e-27</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>2.35076843105649e-27</v>
+        <v>2.356622737546673e-27</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>2.360497137074754e-27</v>
+        <v>2.366044828375953e-27</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>2.371237674016889e-27</v>
+        <v>2.375995815896345e-27</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>2.383075787784048e-27</v>
+        <v>2.386612409473581e-27</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>2.396097224277379e-27</v>
+        <v>2.398031318473385e-27</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>2.410387729398034e-27</v>
+        <v>2.410389252261493e-27</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>2.426033049047149e-27</v>
+        <v>2.423822920203617e-27</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>2.443118929125878e-27</v>
+        <v>2.43846903166549e-27</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>2.461731115535367e-27</v>
+        <v>2.454464296012839e-27</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>2.481955354176772e-27</v>
+        <v>2.471945422611397e-27</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>2.503877390951225e-27</v>
+        <v>2.491049120826877e-27</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>2.52758297175988e-27</v>
+        <v>2.511912100025011e-27</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>2.553157842503897e-27</v>
+        <v>2.534671069571538e-27</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>2.580687749084399e-27</v>
+        <v>2.559462738832162e-27</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>2.610258437402547e-27</v>
+        <v>2.586423817172621e-27</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>2.641955653359485e-27</v>
+        <v>2.61569101395864e-27</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>2.675865142856379e-27</v>
+        <v>2.647401038555962e-27</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>2.712072651794345e-27</v>
+        <v>2.681690600330283e-27</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>2.750663926074544e-27</v>
+        <v>2.718696408647345e-27</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>2.791724711598144e-27</v>
+        <v>2.758555172872892e-27</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>2.835340754266254e-27</v>
+        <v>2.801403602372614e-27</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>2.88159779998004e-27</v>
+        <v>2.847378406512257e-27</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>2.930581594640648e-27</v>
+        <v>2.896616294657543e-27</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>2.982377884149252e-27</v>
+        <v>2.949253976174229e-27</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>3.037072414406951e-27</v>
+        <v>3.005428160427989e-27</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>3.094895191785869e-27</v>
+        <v>3.065402479910513e-27</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>3.156846987456681e-27</v>
+        <v>3.130118700748758e-27</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>3.224184933796159e-27</v>
+        <v>3.200744140569894e-27</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>3.298166335825623e-27</v>
+        <v>3.278446268897085e-27</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>3.380048498566357e-27</v>
+        <v>3.364392555253461e-27</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>3.471088727039695e-27</v>
+        <v>3.4597504691622e-27</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>3.572544326266847e-27</v>
+        <v>3.56568748014635e-27</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>3.685672601269137e-27</v>
+        <v>3.683371057729082e-27</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>3.811730857067916e-27</v>
+        <v>3.813968671433592e-27</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>3.951976398684357e-27</v>
+        <v>3.958647790782894e-27</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>4.107666531139807e-27</v>
+        <v>4.118575885300179e-27</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>4.280058559455553e-27</v>
+        <v>4.294920424508575e-27</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>4.470409788652974e-27</v>
+        <v>4.48884887793131e-27</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>4.679977523753185e-27</v>
+        <v>4.701528715091339e-27</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>4.910019069777563e-27</v>
+        <v>4.93412740551188e-27</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>5.16179173174751e-27</v>
+        <v>5.187812418716185e-27</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>5.436552814684088e-27</v>
+        <v>5.463751224227154e-27</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>5.735967039438325e-27</v>
+        <v>5.763531215238433e-27</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>6.066026941815023e-27</v>
+        <v>6.09320046567339e-27</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>6.43533476356615e-27</v>
+        <v>6.461496874494836e-27</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>6.852528733838838e-27</v>
+        <v>6.877195432889237e-27</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>7.326247081780706e-27</v>
+        <v>7.349071132043541e-27</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>7.865128036539218e-27</v>
+        <v>7.885898963144539e-27</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>8.477809827262129e-27</v>
+        <v>8.496453917379323e-27</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>9.172930683096349e-27</v>
+        <v>9.189510985934131e-27</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>9.959128833189603e-27</v>
+        <v>9.973845159996021e-27</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>1.084504250668978e-26</v>
+        <v>1.085823143075221e-26</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>1.183930993274353e-26</v>
+        <v>1.185144478938869e-26</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>1.295056934049872e-26</v>
+        <v>1.296226022709263e-26</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>1.418745895910337e-26</v>
+        <v>1.419945273505142e-26</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>1.555616468664013e-26</v>
+        <v>1.556933035952702e-26</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>1.703283224785707e-26</v>
+        <v>1.704798195891922e-26</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>1.857347353853471e-26</v>
+        <v>1.859124258173191e-26</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>2.013372937499266e-26</v>
+        <v>2.015457398568221e-26</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>2.166924057354845e-26</v>
+        <v>2.169343792848507e-26</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>2.313564795052169e-26</v>
+        <v>2.31632961678576e-26</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>2.448859232223133e-26</v>
+        <v>2.451961046151617e-26</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>2.568371450499676e-26</v>
+        <v>2.571784256717769e-26</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>2.667665531513584e-26</v>
+        <v>2.671345424255746e-26</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>2.742305556896806e-26</v>
+        <v>2.746190724537244e-26</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>2.787855608281249e-26</v>
+        <v>2.791866333333915e-26</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>2.799879767298762e-26</v>
+        <v>2.803918426417358e-26</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>2.773942115581266e-26</v>
+        <v>2.777893179559237e-26</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>2.70603379902018e-26</v>
+        <v>2.709765778558377e-26</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>2.598221618753352e-26</v>
+        <v>2.601614746040042e-26</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>2.457093625297807e-26</v>
+        <v>2.460060453486652e-26</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>2.289345517520915e-26</v>
+        <v>2.291831411192712e-26</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>2.101672994290002e-26</v>
+        <v>2.103656129452681e-26</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>1.900771754472653e-26</v>
+        <v>1.902263118561276e-26</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>1.693337496936202e-26</v>
+        <v>1.694380888812963e-26</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>1.48606592054806e-26</v>
+        <v>1.486737950502287e-26</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>1.285652724175552e-26</v>
+        <v>1.286062813923708e-26</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>1.098793606686276e-26</v>
+        <v>1.099083989371953e-26</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>9.321842669475515e-27</v>
+        <v>9.325299871414777e-27</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>7.92520403826736e-27</v>
+        <v>7.931293175267713e-27</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>6.864977161913706e-27</v>
+        <v>6.876104908225082e-27</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>6.208119029087997e-27</v>
+        <v>6.227020173231651e-27</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>6.0020119209862e-27</v>
+        <v>6.031455503215221e-27</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>6.020122887263498e-27</v>
+        <v>6.058800085722107e-27</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>5.834363003434576e-27</v>
+        <v>5.873861303479484e-27</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>5.012666204303329e-27</v>
+        <v>5.03741493829551e-27</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>3.497307741631137e-27</v>
+        <v>3.493013389804782e-27</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>2.213201037096143e-27</v>
+        <v>2.18895561366738e-27</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>1.697266390570006e-27</v>
+        <v>1.674448898797189e-27</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>1.589597759974802e-27</v>
+        <v>1.577824159445759e-27</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>1.500876850953362e-27</v>
+        <v>1.497523966945621e-27</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>1.347162712968376e-27</v>
+        <v>1.347353442979037e-27</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>1.1533458514625e-27</v>
+        <v>1.153507728365937e-27</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>9.444502333000161e-28</v>
+        <v>9.423197892598839e-28</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>7.450058030040173e-28</v>
+        <v>7.396064518278655e-28</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>5.698010097470453e-28</v>
+        <v>5.61006914910853e-28</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>4.247063891015433e-28</v>
+        <v>4.128432039712558e-28</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>3.152635736453169e-28</v>
+        <v>3.010937163132422e-28</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>2.470141959563134e-28</v>
+        <v>2.317368492411249e-28</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>2.254998886123215e-28</v>
+        <v>2.107510000590544e-28</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>2.562622841911875e-28</v>
+        <v>2.441145660712404e-28</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>3.448430152708117e-28</v>
+        <v>3.378059445819491e-28</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>4.967837144289625e-28</v>
+        <v>4.978035328953081e-28</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>7.286822247347009e-28</v>
+        <v>7.405988793404584e-28</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>1.185516128521883e-27</v>
+        <v>1.204757509447351e-27</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>2.019289436261163e-27</v>
+        <v>2.034529052167166e-27</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>3.007629207967211e-27</v>
+        <v>3.013226907915216e-27</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>3.817705181890864e-27</v>
+        <v>3.81773344007345e-27</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>4.335079924106483e-27</v>
+        <v>4.337532889897144e-27</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>4.723582956244184e-27</v>
+        <v>4.732997451578662e-27</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>5.165099849790177e-27</v>
+        <v>5.182076564060388e-27</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>5.841500126551547e-27</v>
+        <v>5.862703866256817e-27</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>6.849917262146155e-27</v>
+        <v>6.86939501200831e-27</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>8.004951632389683e-27</v>
+        <v>8.018527330768361e-27</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>9.062389973689703e-27</v>
+        <v>9.06857935313284e-27</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>9.778019022454015e-27</v>
+        <v>9.778029609697841e-27</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>9.93388393606014e-27</v>
+        <v>9.931442581543796e-27</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>9.665154891866104e-27</v>
+        <v>9.664188374987006e-27</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>9.359829845036149e-27</v>
+        <v>9.362804251464114e-27</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>9.411401119485383e-27</v>
+        <v>9.41928575306552e-27</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>1.011122403164669e-26</v>
+        <v>1.012383837749958e-26</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>1.131214627539436e-26</v>
+        <v>1.132964962613398e-26</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>1.274935753679717e-26</v>
+        <v>1.277264868102927e-26</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>1.415804606313917e-26</v>
+        <v>1.418876329034884e-26</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>1.527340077424503e-26</v>
+        <v>1.53139218700914e-26</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>1.590367061522026e-26</v>
+        <v>1.595660170617299e-26</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>1.613117669232724e-26</v>
+        <v>1.619743473394075e-26</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>1.610249523066559e-26</v>
+        <v>1.618085845464645e-26</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>1.596420245533459e-26</v>
+        <v>1.605131036954148e-26</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>1.585789407284394e-26</v>
+        <v>1.594836392729563e-26</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>1.584697408084805e-26</v>
+        <v>1.593522932715415e-26</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>1.593272118892269e-26</v>
+        <v>1.601444423749459e-26</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>1.611470025684173e-26</v>
+        <v>1.618687255409361e-26</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>1.639247614437876e-26</v>
+        <v>1.645337817272762e-26</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>1.676561371130761e-26</v>
+        <v>1.681482498917324e-26</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>1.723367781740204e-26</v>
+        <v>1.727207689920705e-26</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>1.779623332243609e-26</v>
+        <v>1.782599779860587e-26</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>1.845277022367071e-26</v>
+        <v>1.847737171492914e-26</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>1.919302730539839e-26</v>
+        <v>1.921657944498699e-26</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>1.998742046244394e-26</v>
+        <v>2.001338686532038e-26</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>2.080409088084448e-26</v>
+        <v>2.083513304459707e-26</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>2.161117974663822e-26</v>
+        <v>2.164915705148588e-26</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>2.237682824586303e-26</v>
+        <v>2.242279795465535e-26</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>2.306917756455704e-26</v>
+        <v>2.312339482277423e-26</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>2.365636888875747e-26</v>
+        <v>2.371828672451039e-26</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>2.410654340450252e-26</v>
+        <v>2.417481272853266e-26</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>2.438789705307668e-26</v>
+        <v>2.446036826160628e-26</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>2.44799483105099e-26</v>
+        <v>2.455400272975572e-26</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>2.438733889855676e-26</v>
+        <v>2.446062421740048e-26</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>2.41180884670458e-26</v>
+        <v>2.418861761910879e-26</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>2.368021666580531e-26</v>
+        <v>2.374636782944869e-26</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>2.308174314466422e-26</v>
+        <v>2.314225974298884e-26</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>2.233068755345089e-26</v>
+        <v>2.238467825429733e-26</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>2.14350695419934e-26</v>
+        <v>2.148200825794198e-26</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>2.040290876012111e-26</v>
+        <v>2.044263464849187e-26</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>1.924311882454299e-26</v>
+        <v>1.92758252713948e-26</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>1.797820977264607e-26</v>
+        <v>1.800427684945299e-26</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>1.664127187983255e-26</v>
+        <v>1.666113596738825e-26</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>1.526567423051868e-26</v>
+        <v>1.527982458328305e-26</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>1.388478590911893e-26</v>
+        <v>1.389376465521806e-26</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>1.25319760000477e-26</v>
+        <v>1.253637814127394e-26</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>1.124061358772129e-26</v>
+        <v>1.124108699953318e-26</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>1.00440677565541e-26</v>
+        <v>1.004131318807643e-26</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>8.97570759096117e-27</v>
+        <v>8.970478664984933e-27</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>8.060333151041291e-27</v>
+        <v>8.053416410111222e-27</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>7.287405288469561e-27</v>
+        <v>7.279537903663282e-27</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>6.637276083276638e-27</v>
+        <v>6.629124643431361e-27</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>6.090297606168936e-27</v>
+        <v>6.082458117859729e-27</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>5.626821927852666e-27</v>
+        <v>5.619819815392474e-27</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>5.22720111903465e-27</v>
+        <v>5.221491224474277e-27</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>4.871787250421075e-27</v>
+        <v>4.867753833549194e-27</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>4.5409323927182e-27</v>
+        <v>4.538889131061352e-27</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>4.215045741862299e-27</v>
+        <v>4.215235614529068e-27</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>3.88525046188075e-27</v>
+        <v>3.887823964270062e-27</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>3.565922041261867e-27</v>
+        <v>3.570889904852077e-27</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>3.274483537819376e-27</v>
+        <v>3.281710533380469e-27</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>3.028358009366555e-27</v>
+        <v>3.03756294696015e-27</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>2.844968513716833e-27</v>
+        <v>2.855724242696182e-27</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>2.741738108683614e-27</v>
+        <v>2.753471517693599e-27</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>2.736089852080427e-27</v>
+        <v>2.748081869057561e-27</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>2.845446801720632e-27</v>
+        <v>2.856832393893064e-27</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>3.086877161197867e-27</v>
+        <v>3.096648054444644e-27</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>3.457570708930373e-27</v>
+        <v>3.464727722392992e-27</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>3.924691696656348e-27</v>
+        <v>3.928474837774106e-27</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>4.452911268821585e-27</v>
+        <v>4.452818838795298e-27</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>5.006900569871985e-27</v>
+        <v>5.002689163663985e-27</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>5.55133074425269e-27</v>
+        <v>5.543015250586829e-27</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>6.050872936409598e-27</v>
+        <v>6.038726537771247e-27</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>6.470198290788524e-27</v>
+        <v>6.45475246342457e-27</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>6.773977951834734e-27</v>
+        <v>6.756022465753584e-27</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>6.933845785047593e-27</v>
+        <v>6.914378628925083e-27</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>6.957875744936908e-27</v>
+        <v>6.937841053160668e-27</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>6.866022925768476e-27</v>
+        <v>6.846225530638616e-27</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>6.678248960395432e-27</v>
+        <v>6.659354345099781e-27</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>6.414515481670825e-27</v>
+        <v>6.397049780284928e-27</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>6.094784122447706e-27</v>
+        <v>6.079134119934825e-27</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>5.739016515578964e-27</v>
+        <v>5.725429647790077e-27</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>5.367174293917984e-27</v>
+        <v>5.355758647591787e-27</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>4.999218794634004e-27</v>
+        <v>4.98994310944608e-27</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>4.651148195053879e-27</v>
+        <v>4.643869329507429e-27</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>4.325062171063273e-27</v>
+        <v>4.319621423287882e-27</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>4.020015375572173e-27</v>
+        <v>4.016259586249665e-27</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>3.735062461490728e-27</v>
+        <v>3.732844013855161e-27</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>3.469258081728971e-27</v>
+        <v>3.46843490156664e-27</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>3.221656889197292e-27</v>
+        <v>3.222092444846725e-27</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>2.991313536805713e-27</v>
+        <v>2.992876839157676e-27</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>2.777282677464384e-27</v>
+        <v>2.77984827996188e-27</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>2.578618964083369e-27</v>
+        <v>2.582066962721634e-27</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>2.394377049572995e-27</v>
+        <v>2.398593082899501e-27</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>2.223611586843316e-27</v>
+        <v>2.228486835957772e-27</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>2.065377228804415e-27</v>
+        <v>2.070808417358766e-27</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>1.918728628366582e-27</v>
+        <v>1.924618022565007e-27</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>1.782720438439893e-27</v>
+        <v>1.788975847038806e-27</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>1.656407311934441e-27</v>
+        <v>1.662942086242494e-27</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>1.538843901760488e-27</v>
+        <v>1.545576935638569e-27</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>1.429084860828125e-27</v>
+        <v>1.435940590689355e-27</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>1.32625270195932e-27</v>
+        <v>1.333160995065239e-27</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>1.229923258134426e-27</v>
+        <v>1.236818666387229e-27</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>1.139858100864915e-27</v>
+        <v>1.146679555064305e-27</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>1.055819362802438e-27</v>
+        <v>1.062510171721932e-27</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>9.775691765986913e-28</v>
+        <v>9.840770269856243e-28</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>9.048696749053392e-28</v>
+        <v>9.111466314808618e-28</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>8.374829903741433e-28</v>
+        <v>8.434854958332226e-28</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>7.751712556567654e-28</v>
+        <v>7.808601306681848e-28</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>7.176966034048771e-28</v>
+        <v>7.23037046611236e-28</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>6.648211662702258e-28</v>
+        <v>6.697827542879404e-28</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>6.163070769044806e-28</v>
+        <v>6.20863764323783e-28</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>5.719164679593189e-28</v>
+        <v>5.760465873442573e-28</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>5.314114720864763e-28</v>
+        <v>5.350977339749157e-28</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>4.945542219376279e-28</v>
+        <v>4.977837148412496e-28</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>4.611068501644556e-28</v>
+        <v>4.638710405687566e-28</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>4.308314894186984e-28</v>
+        <v>4.331262217829927e-28</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>4.034902723519978e-28</v>
+        <v>4.053157691094149e-28</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>3.788453316160779e-28</v>
+        <v>3.802061931735641e-28</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>3.566587998626537e-28</v>
+        <v>3.57564004600972e-28</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>3.36692809743381e-28</v>
+        <v>3.371557140171096e-28</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>3.18709493909992e-28</v>
+        <v>3.187478320475265e-28</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>3.024709850141501e-28</v>
+        <v>3.021068693177016e-28</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>2.877394157075682e-28</v>
+        <v>2.869993364531644e-28</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>2.742769186419537e-28</v>
+        <v>2.731917440794387e-28</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>2.618456264689782e-28</v>
+        <v>2.604506028220121e-28</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>2.502076718403502e-28</v>
+        <v>2.485424233064095e-28</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>2.391362120430315e-28</v>
+        <v>2.372443765135735e-28</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>2.285329442230883e-28</v>
+        <v>2.264579260247801e-28</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>2.183826745367025e-28</v>
+        <v>2.161648983145801e-28</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>2.086716024027813e-28</v>
+        <v>2.063484670835776e-28</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>1.993859272402059e-28</v>
+        <v>1.969918060323504e-28</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>1.905118484678844e-28</v>
+        <v>1.880780888615032e-28</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>1.820355655047229e-28</v>
+        <v>1.795904892716392e-28</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>1.739432777696051e-28</v>
+        <v>1.715121809633384e-28</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>1.662211846814375e-28</v>
+        <v>1.638263376372044e-28</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>1.588554856591256e-28</v>
+        <v>1.565161329938392e-28</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>1.518323801215549e-28</v>
+        <v>1.495647407338251e-28</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>1.451380674876369e-28</v>
+        <v>1.429553345577704e-28</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>1.387587471762584e-28</v>
+        <v>1.366710881662586e-28</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>1.326806186063244e-28</v>
+        <v>1.306951752598914e-28</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>1.26889881196739e-28</v>
+        <v>1.250107695392696e-28</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>1.213727343663904e-28</v>
+        <v>1.196010447049782e-28</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>1.161153775341829e-28</v>
+        <v>1.144491744576183e-28</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>1.111041446474713e-28</v>
+        <v>1.095385176865179e-28</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>1.063292565929676e-28</v>
+        <v>1.048577839510556e-28</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>1.017853204489634e-28</v>
+        <v>1.004017207396125e-28</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>9.746717812992358e-29</v>
+        <v>9.616539881056847e-29</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>9.336967155030168e-29</v>
+        <v>9.214388892229184e-29</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>8.948764262456627e-29</v>
+        <v>8.833226183316588e-29</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>8.581593326717161e-29</v>
+        <v>8.47255883015598e-29</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>8.234938539258253e-29</v>
+        <v>8.131893908585317e-29</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>7.908284091526311e-29</v>
+        <v>7.810738494442478e-29</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>7.601114174966873e-29</v>
+        <v>7.508599663564497e-29</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>7.312912981026361e-29</v>
+        <v>7.224984491789267e-29</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>7.043164701151135e-29</v>
+        <v>6.959400054954627e-29</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>6.791353526786833e-29</v>
+        <v>6.711353428897699e-29</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>6.55696364937983e-29</v>
+        <v>6.480351689456342e-29</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>6.339479260376435e-29</v>
+        <v>6.265901912468337e-29</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>6.138384551222385e-29</v>
+        <v>6.067511173770905e-29</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>5.953163713363997e-29</v>
+        <v>5.88468654920185e-29</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>5.783300938247552e-29</v>
+        <v>5.71693511459892e-29</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>5.628280417318861e-29</v>
+        <v>5.563763945799416e-29</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>5.48758634202433e-29</v>
+        <v>5.42468011864122e-29</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>5.360702903809827e-29</v>
+        <v>5.299190708961685e-29</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>5.24711429412161e-29</v>
+        <v>5.186802792598544e-29</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>5.146304704405887e-29</v>
+        <v>5.087023445389488e-29</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>5.0577583261086e-29</v>
+        <v>4.999359743171939e-29</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>4.980959350675971e-29</v>
+        <v>4.923318761783598e-29</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>4.915391969554172e-29</v>
+        <v>4.858407577062119e-29</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>4.860540374189213e-29</v>
+        <v>4.804133264844993e-29</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>4.815888756027279e-29</v>
+        <v>4.760002900969885e-29</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>4.780921306514522e-29</v>
+        <v>4.725523561274425e-29</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>4.755122217097004e-29</v>
+        <v>4.700202321596157e-29</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>4.737975679220879e-29</v>
+        <v>4.683546257772715e-29</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>4.728965884332278e-29</v>
+        <v>4.675062445641711e-29</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>4.72757702387731e-29</v>
+        <v>4.674257961040734e-29</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>4.7332932893021e-29</v>
+        <v>4.680639879807389e-29</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>4.745598872052781e-29</v>
+        <v>4.693715277779289e-29</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>4.763994658883881e-29</v>
+        <v>4.713007108687224e-29</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>4.788236604957095e-29</v>
+        <v>4.73828090632258e-29</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>4.818279741565552e-29</v>
+        <v>4.769491533686744e-29</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>4.854084380776577e-29</v>
+        <v>4.806598876004507e-29</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>4.895610834657472e-29</v>
+        <v>4.849562818500639e-29</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>4.942819415275659e-29</v>
+        <v>4.898343246400028e-29</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>4.995670434698444e-29</v>
+        <v>4.952900044927449e-29</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>5.054124204993118e-29</v>
+        <v>5.013193099307657e-29</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>5.118141038227131e-29</v>
+        <v>5.079182294765571e-29</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>5.187681246467711e-29</v>
+        <v>5.150827516525884e-29</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>5.262705141782327e-29</v>
+        <v>5.228088649813533e-29</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>5.343173036238261e-29</v>
+        <v>5.31092557985327e-29</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>5.429045241902782e-29</v>
+        <v>5.399298191869822e-29</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>5.520282070843386e-29</v>
+        <v>5.49316637108816e-29</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>5.616843835127344e-29</v>
+        <v>5.592490002733019e-29</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>5.718690846821902e-29</v>
+        <v>5.69722897202911e-29</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>5.825783417994592e-29</v>
+        <v>5.807343164201436e-29</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>5.938081860712667e-29</v>
+        <v>5.922792464474714e-29</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>6.05554648704336e-29</v>
+        <v>6.043536758073643e-29</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>6.178137609054234e-29</v>
+        <v>6.169535930223254e-29</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>6.305815538812524e-29</v>
+        <v>6.300749866148252e-29</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>6.438540588385454e-29</v>
+        <v>6.43713845107332e-29</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>6.57664781133125e-29</v>
+        <v>6.579033252737328e-29</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>6.724502265805509e-29</v>
+        <v>6.730762946957168e-29</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>6.888921989610426e-29</v>
+        <v>6.899089165771936e-29</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>7.076759778213357e-29</v>
+        <v>7.0908080151626e-29</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>7.294868427081017e-29</v>
+        <v>7.312715601109474e-29</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>7.55010073168086e-29</v>
+        <v>7.571608029593625e-29</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>7.849309487479772e-29</v>
+        <v>7.874281406595542e-29</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>8.199347489944474e-29</v>
+        <v>8.227531838095549e-29</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>8.607067534542661e-29</v>
+        <v>8.638155430074957e-29</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>9.079322416741107e-29</v>
+        <v>9.112948288514135e-29</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>9.622964932006352e-29</v>
+        <v>9.658706519393237e-29</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>1.024484787580644e-28</v>
+        <v>1.028222622869391e-28</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>1.095182404360798e-28</v>
+        <v>1.099030352239637e-28</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>1.174913531886684e-28</v>
+        <v>1.178813108655962e-28</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>1.263095051590135e-28</v>
+        <v>1.266988003714722e-28</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>1.358678351072614e-28</v>
+        <v>1.362508820117932e-28</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>1.460613207066606e-28</v>
+        <v>1.464327737190517e-28</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>1.56784939630434e-28</v>
+        <v>1.571396934257152e-28</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>1.679336695518024e-28</v>
+        <v>1.682668590642487e-28</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>1.794024881440174e-28</v>
+        <v>1.797094885671478e-28</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>1.910863730803001e-28</v>
+        <v>1.913627998668782e-28</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>2.028803020338711e-28</v>
+        <v>2.031220108959047e-28</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>2.146682447239827e-28</v>
+        <v>2.148714141396394e-28</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>2.262839005652359e-28</v>
+        <v>2.264454085652825e-28</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>2.375466269459599e-28</v>
+        <v>2.376641586102461e-28</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>2.482757801722575e-28</v>
+        <v>2.483478276378276e-28</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>2.582907165501918e-28</v>
+        <v>2.583165790112853e-28</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>2.674107923858634e-28</v>
+        <v>2.673905760939142e-28</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>2.754553639853451e-28</v>
+        <v>2.753899822489823e-28</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>2.822437876547137e-28</v>
+        <v>2.821349608397609e-28</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>2.875954197000637e-28</v>
+        <v>2.874456752295396e-28</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>2.91329616427471e-28</v>
+        <v>2.911422887815886e-28</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>2.932657341430168e-28</v>
+        <v>2.930449648591843e-28</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>2.93223129152787e-28</v>
+        <v>2.929738668256073e-28</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>2.910211577628612e-28</v>
+        <v>2.90749158044132e-28</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>2.86479176279327e-28</v>
+        <v>2.861910018780408e-28</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>2.794165410082585e-28</v>
+        <v>2.791195616906027e-28</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>2.696526082557412e-28</v>
+        <v>2.693550008450979e-28</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>2.570067343278698e-28</v>
+        <v>2.567174827048159e-28</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>2.413741348813136e-28</v>
+        <v>2.411027708395946e-28</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>2.231585921969578e-28</v>
+        <v>2.229134581230196e-28</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>2.029729340794747e-28</v>
+        <v>2.027604688295735e-28</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>1.814306309817443e-28</v>
+        <v>1.812553676865884e-28</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>1.591451533567213e-28</v>
+        <v>1.590097194214709e-28</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>1.367299716572817e-28</v>
+        <v>1.366350887615494e-28</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>1.147985563363624e-28</v>
+        <v>1.147430404342126e-28</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>9.396437784689811e-29</v>
+        <v>9.39451391668474e-29</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>7.484090664176795e-29</v>
+        <v>7.485294968678499e-29</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>5.804161317390803e-29</v>
+        <v>5.807803672141355e-29</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>4.417947704347112e-29</v>
+        <v>4.423147577051949e-29</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>3.359559778743727e-29</v>
+        <v>3.365336244790367e-29</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>2.590817992540635e-29</v>
+        <v>2.596329080832235e-29</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>2.061661061761597e-29</v>
+        <v>2.066243094371027e-29</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>1.722027702429079e-29</v>
+        <v>1.725195294598915e-29</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>1.521856630567168e-29</v>
+        <v>1.5233026907097e-29</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>1.411086562198921e-29</v>
+        <v>1.410682291896145e-29</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>1.339821701492853e-29</v>
+        <v>1.337615984306333e-29</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>1.274606957416113e-29</v>
+        <v>1.270765639149119e-29</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>1.212151591937769e-29</v>
+        <v>1.206846075946165e-29</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>1.152396188588763e-29</v>
+        <v>1.145791501682042e-29</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>1.09528133090003e-29</v>
+        <v>1.087536123341314e-29</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>1.040747602402351e-29</v>
+        <v>1.032014147908389e-29</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>9.887355866266641e-30</v>
+        <v>9.791597823678332e-30</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>9.391858671038957e-30</v>
+        <v>9.289072337042027e-30</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>8.920390273648413e-30</v>
+        <v>8.811907089019193e-30</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>8.472356509404305e-30</v>
+        <v>8.359444149455412e-30</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>8.047163213615849e-30</v>
+        <v>7.931025588196191e-30</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>7.644216221591118e-30</v>
+        <v>7.525993475085875e-30</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>7.262921368639348e-30</v>
+        <v>7.143689879969986e-30</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>6.902684490069698e-30</v>
+        <v>6.783456872693965e-30</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>6.562911421190359e-30</v>
+        <v>6.44463652310228e-30</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>6.243007997310785e-30</v>
+        <v>6.126570901040672e-30</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>5.94238005373924e-30</v>
+        <v>5.828602076353686e-30</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>5.660433425784867e-30</v>
+        <v>5.550072118886744e-30</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>5.396573948756732e-30</v>
+        <v>5.290323098485194e-30</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>5.150207457963206e-30</v>
+        <v>5.048697084993692e-30</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>4.920739788713372e-30</v>
+        <v>4.824536148257601e-30</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>4.707576776316259e-30</v>
+        <v>4.617182358122226e-30</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>4.510124256080325e-30</v>
+        <v>4.425977784432316e-30</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>4.327788063314609e-30</v>
+        <v>4.250264497033188e-30</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>4.159974033328097e-30</v>
+        <v>4.089384565770104e-30</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>4.00608800142933e-30</v>
+        <v>3.942680060487895e-30</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>3.865535802927426e-30</v>
+        <v>3.809493051031953e-30</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>3.737723273130978e-30</v>
+        <v>3.689165607247162e-30</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>3.622056247348952e-30</v>
+        <v>3.581039798978767e-30</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>3.517940560890285e-30</v>
+        <v>3.484457696071975e-30</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>3.424782049063628e-30</v>
+        <v>3.398761368371737e-30</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>3.341986547177924e-30</v>
+        <v>3.323292885723265e-30</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>3.268959890542072e-30</v>
+        <v>3.257394317971739e-30</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>3.205107914464785e-30</v>
+        <v>3.200407734962165e-30</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>3.149836454254974e-30</v>
+        <v>3.151675206539727e-30</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>3.10255134522152e-30</v>
+        <v>3.110538802549583e-30</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>3.062658422673177e-30</v>
+        <v>3.076340592836782e-30</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>3.029563521918863e-30</v>
+        <v>3.04842264724651e-30</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>3.002672478267358e-30</v>
+        <v>3.02612703562384e-30</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>2.981391127027537e-30</v>
+        <v>3.008795827813924e-30</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>2.965125427403641e-30</v>
+        <v>2.995771240939021e-30</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>2.953410945107801e-30</v>
+        <v>2.986549558182564e-30</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>2.946158230261452e-30</v>
+        <v>2.981072814811514e-30</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>2.94334525595994e-30</v>
+        <v>2.97936319324125e-30</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>2.944949995298611e-30</v>
+        <v>2.981442875887148e-30</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>2.950950421372821e-30</v>
+        <v>2.987334045164592e-30</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>2.961324507277908e-30</v>
+        <v>2.997058883488947e-30</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>2.976050226109237e-30</v>
+        <v>3.010639573275611e-30</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>2.995105550962155e-30</v>
+        <v>3.028098296939957e-30</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>3.018468454931984e-30</v>
+        <v>3.049457236897341e-30</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>3.04611691111412e-30</v>
+        <v>3.074738575563181e-30</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>3.07802889260389e-30</v>
+        <v>3.103964495352838e-30</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>3.114182372496612e-30</v>
+        <v>3.13715717868166e-30</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>3.1545553238877e-30</v>
+        <v>3.174338807965085e-30</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>3.19912571987243e-30</v>
+        <v>3.215531565618426e-30</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>3.247871533546233e-30</v>
+        <v>3.260757634057135e-30</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>3.30077073800442e-30</v>
+        <v>3.310039195696555e-30</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>3.357801306342288e-30</v>
+        <v>3.363398432952017e-30</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>3.418941211655287e-30</v>
+        <v>3.420857528238993e-30</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>3.484168427038721e-30</v>
+        <v>3.482438663972819e-30</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>3.553460925587871e-30</v>
+        <v>3.54816402256881e-30</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>3.626796680398216e-30</v>
+        <v>3.618055786442465e-30</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>3.704153664565041e-30</v>
+        <v>3.692136138009105e-30</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>3.785509851183625e-30</v>
+        <v>3.770427259684036e-30</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>3.87084321334946e-30</v>
+        <v>3.852951333882778e-30</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>3.960131724157744e-30</v>
+        <v>3.939730543020562e-30</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>4.053353356703989e-30</v>
+        <v>4.030787069512922e-30</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>4.150486084083461e-30</v>
+        <v>4.126143095775162e-30</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>4.251507879391423e-30</v>
+        <v>4.225820804222569e-30</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>4.356396715723402e-30</v>
+        <v>4.329842377270698e-30</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>4.465130566174662e-30</v>
+        <v>4.438229997334845e-30</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>4.577687403840447e-30</v>
+        <v>4.551005846830283e-30</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>4.69404520181631e-30</v>
+        <v>4.668192108172593e-30</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>4.814181933197501e-30</v>
+        <v>4.789810963777057e-30</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>4.938075571079257e-30</v>
+        <v>4.915884596058935e-30</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>5.06570408855715e-30</v>
+        <v>5.046435187433836e-30</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>5.197045458726301e-30</v>
+        <v>5.181484920316901e-30</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>5.332077654682295e-30</v>
+        <v>5.321055977123755e-30</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>5.470778637929417e-30</v>
+        <v>5.465170527210638e-30</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>5.612793700754193e-30</v>
+        <v>5.613475936050608e-30</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>5.756565483394717e-30</v>
+        <v>5.76426459356203e-30</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>5.900264943268802e-30</v>
+        <v>5.915522796491415e-30</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>6.04206303779374e-30</v>
+        <v>6.065236841584723e-30</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>6.180130724387343e-30</v>
+        <v>6.211393025588461e-30</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>6.312638960467029e-30</v>
+        <v>6.351977645248722e-30</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>6.437758703450239e-30</v>
+        <v>6.484976997311623e-30</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>6.553660910754754e-30</v>
+        <v>6.608377378523639e-30</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>6.658516539798006e-30</v>
+        <v>6.720165085630879e-30</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>6.75049654799747e-30</v>
+        <v>6.818326415379495e-30</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>6.82777189277086e-30</v>
+        <v>6.900847664515893e-30</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>6.888513531535637e-30</v>
+        <v>6.965715129786214e-30</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>6.930892421709329e-30</v>
+        <v>7.01091510793666e-30</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>6.953079520709561e-30</v>
+        <v>7.034433895713542e-30</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>6.953245785953845e-30</v>
+        <v>7.034257789863059e-30</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>6.929562174859734e-30</v>
+        <v>7.008373087131441e-30</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>6.880199644844765e-30</v>
+        <v>6.95476608426491e-30</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>6.803509295000819e-30</v>
+        <v>6.871622228329851e-30</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>6.701004903280541e-30</v>
+        <v>6.760623372818453e-30</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>6.576898424271181e-30</v>
+        <v>6.626434260899183e-30</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>6.435488318383399e-30</v>
+        <v>6.473815269704665e-30</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>6.281073046027461e-30</v>
+        <v>6.307526776367098e-30</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>6.117951067614003e-30</v>
+        <v>6.132329158019089e-30</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>5.950420843553707e-30</v>
+        <v>5.952982791793282e-30</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>5.782780834256789e-30</v>
+        <v>5.77424805482183e-30</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>5.619329500134065e-30</v>
+        <v>5.600885324237523e-30</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>5.464365301595758e-30</v>
+        <v>5.43765497717252e-30</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>5.322186699052545e-30</v>
+        <v>5.289317390759468e-30</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>5.197092152915051e-30</v>
+        <v>5.160632942130943e-30</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>5.093380123593569e-30</v>
+        <v>5.056362008419193e-30</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>5.015349071498744e-30</v>
+        <v>4.981264966756823e-30</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>4.967278362000067e-30</v>
+        <v>4.940081205079843e-30</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>4.950169482834364e-30</v>
+        <v>4.933947080701199e-30</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>4.958056845679045e-30</v>
+        <v>4.956340767435621e-30</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>4.984083607283526e-30</v>
+        <v>4.99976077507177e-30</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>5.021392924397293e-30</v>
+        <v>5.056705613398427e-30</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>5.063127953769735e-30</v>
+        <v>5.11967379220421e-30</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>5.102431852150369e-30</v>
+        <v>5.181163821277939e-30</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>5.132447776288597e-30</v>
+        <v>5.233674210408264e-30</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>5.14631888293386e-30</v>
+        <v>5.269703469383885e-30</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>5.137400577105717e-30</v>
+        <v>5.281951215800173e-30</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>5.105730550203952e-30</v>
+        <v>5.269448614533457e-30</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>5.059214922194282e-30</v>
+        <v>5.238682261828387e-30</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>5.006211277007056e-30</v>
+        <v>5.196566521504264e-30</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>4.955077198572743e-30</v>
+        <v>5.150015757380475e-30</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>4.914170270821814e-30</v>
+        <v>5.105944333276423e-30</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>4.891848077684627e-30</v>
+        <v>5.071266613011393e-30</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>4.89564322788542e-30</v>
+        <v>5.052332889148939e-30</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>4.919146890349426e-30</v>
+        <v>5.045961088435723e-30</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>4.944337537578898e-30</v>
+        <v>5.041029034442458e-30</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>4.952839297964798e-30</v>
+        <v>5.026172270333979e-30</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>4.926276299898144e-30</v>
+        <v>4.990026339275153e-30</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>4.851313987226316e-30</v>
+        <v>4.924114815575599e-30</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>4.737174744161003e-30</v>
+        <v>4.832883525062056e-30</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>4.599387365342068e-30</v>
+        <v>4.72439106286437e-30</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>4.45348093937562e-30</v>
+        <v>4.606696192517653e-30</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>4.312534009082228e-30</v>
+        <v>4.486658474788327e-30</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>4.17870045045979e-30</v>
+        <v>4.365791359066928e-30</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>4.051090943965556e-30</v>
+        <v>4.24411907200053e-30</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>3.928816041190074e-30</v>
+        <v>4.121665777173825e-30</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>3.810986293723563e-30</v>
+        <v>3.998455638171165e-30</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>3.696712253156577e-30</v>
+        <v>3.874512818577239e-30</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>3.585104471079653e-30</v>
+        <v>3.749861481976735e-30</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>3.475273499083033e-30</v>
+        <v>3.624525791954007e-30</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>3.366329888757353e-30</v>
+        <v>3.498529912093858e-30</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>3.25738419169286e-30</v>
+        <v>3.371898005980636e-30</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>3.147546959480091e-30</v>
+        <v>3.244654237199033e-30</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>3.035928743709485e-30</v>
+        <v>3.116822769333624e-30</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>2.921640095971588e-30</v>
+        <v>2.988427765969103e-30</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>2.803841485568666e-30</v>
+        <v>2.859516350190673e-30</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>2.682898799477212e-30</v>
+        <v>2.730690073301731e-30</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>2.560416068147553e-30</v>
+        <v>2.603119966956002e-30</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>2.438053786374744e-30</v>
+        <v>2.478003033412202e-30</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>2.317472448953837e-30</v>
+        <v>2.356536274929032e-30</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>2.200332550679559e-30</v>
+        <v>2.23991669376487e-30</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>2.088294586346963e-30</v>
+        <v>2.129341292178426e-30</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>1.983019050751088e-30</v>
+        <v>2.026007072428384e-30</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>1.886166438686688e-30</v>
+        <v>1.931111036773154e-30</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>1.799397244948805e-30</v>
+        <v>1.845850187471431e-30</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>1.724371964332448e-30</v>
+        <v>1.771421526781872e-30</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>1.662751091632423e-30</v>
+        <v>1.70902205696294e-30</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>1.616195121643787e-30</v>
+        <v>1.659848780273341e-30</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>1.586150561895335e-30</v>
+        <v>1.625052259084093e-30</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>1.572851687260231e-30</v>
+        <v>1.605519974933639e-30</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>1.57610639604455e-30</v>
+        <v>1.60204687637854e-30</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>1.595722115324614e-30</v>
+        <v>1.615427809708256e-30</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>1.631506272176743e-30</v>
+        <v>1.646457621212262e-30</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>1.683266293677197e-30</v>
+        <v>1.695931157179971e-30</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>1.750809606902385e-30</v>
+        <v>1.764643263900936e-30</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>1.833943638928584e-30</v>
+        <v>1.853388787664587e-30</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>1.932475907568782e-30</v>
+        <v>1.962962662476783e-30</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>2.062593741310486e-30</v>
+        <v>2.109994413963019e-30</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>2.30255845165958e-30</v>
+        <v>2.371121353603469e-30</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>2.744279312420929e-30</v>
+        <v>2.836138625839867e-30</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>3.411541061766607e-30</v>
+        <v>3.526667892055012e-30</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>4.219628799169625e-30</v>
+        <v>4.35575321802627e-30</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>5.074146140145213e-30</v>
+        <v>5.226750229434551e-30</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>5.880696700206387e-30</v>
+        <v>6.043014551958501e-30</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>6.54488409486635e-30</v>
+        <v>6.707901811276967e-30</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>6.973466777502487e-30</v>
+        <v>7.125976942763276e-30</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>7.146835272143138e-30</v>
+        <v>7.27891005787679e-30</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>7.162078925800377e-30</v>
+        <v>7.270574585403625e-30</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>7.126632087274278e-30</v>
+        <v>7.215676912885722e-30</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>7.14792910536482e-30</v>
+        <v>7.228923427865006e-30</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>7.32244530886055e-30</v>
+        <v>7.41312341180818e-30</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>7.640258460272142e-30</v>
+        <v>7.7555810069609e-30</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>8.031615572956392e-30</v>
+        <v>8.178648127313221e-30</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>8.426096902170661e-30</v>
+        <v>8.60395285463048e-30</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>8.753282703173404e-30</v>
+        <v>8.95312327067921e-30</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>8.947441828293501e-30</v>
+        <v>9.153152351371303e-30</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>8.995585162279976e-30</v>
+        <v>9.191382771407037e-30</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>8.917931894586656e-30</v>
+        <v>9.093155574041185e-30</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>8.735219035245648e-30</v>
+        <v>8.884404315074794e-30</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>8.468183594288532e-30</v>
+        <v>8.591062550308302e-30</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>8.137480748991229e-30</v>
+        <v>8.238924673367561e-30</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>7.760012584941021e-30</v>
+        <v>7.847402689851881e-30</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>7.347446471959771e-30</v>
+        <v>7.427006614684125e-30</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>6.911061299854031e-30</v>
+        <v>6.987585826062465e-30</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>6.462135958430441e-30</v>
+        <v>6.538989702185127e-30</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>6.011949337494411e-30</v>
+        <v>6.091067621249126e-30</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>5.571780326852966e-30</v>
+        <v>5.653668961453078e-30</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>5.15276231147116e-30</v>
+        <v>5.23651755661864e-30</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>4.760948642344491e-30</v>
+        <v>4.844954089533341e-30</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>4.396108905395962e-30</v>
+        <v>4.47889748959844e-30</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>4.05762301761186e-30</v>
+        <v>4.137930472360351e-30</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>3.744870895979464e-30</v>
+        <v>3.821635753366473e-30</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>3.457232457485966e-30</v>
+        <v>3.52959604816413e-30</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>3.194087619117789e-30</v>
+        <v>3.261394072299858e-30</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>2.954816297862143e-30</v>
+        <v>3.016612541320999e-30</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>2.738798410706157e-30</v>
+        <v>2.794834170774806e-30</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>2.545413874636379e-30</v>
+        <v>2.595641676207947e-30</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>2.374042606640105e-30</v>
+        <v>2.418617773167848e-30</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>2.224064523703963e-30</v>
+        <v>2.263345177201253e-30</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>2.094859542815063e-30</v>
+        <v>2.1294066038554e-30</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>1.985749290075401e-30</v>
+        <v>2.016321137344245e-30</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>1.894474192860848e-30</v>
+        <v>1.921881798142099e-30</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>1.817047061398195e-30</v>
+        <v>1.84199571011349e-30</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>1.749393059330107e-30</v>
+        <v>1.772474320603425e-30</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>1.687437350298984e-30</v>
+        <v>1.709129076956637e-30</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>1.62710509794741e-30</v>
+        <v>1.647771426518047e-30</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>1.564321465917961e-30</v>
+        <v>1.584212816632569e-30</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>1.495011617853046e-30</v>
+        <v>1.514264694644946e-30</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>1.415103555505925e-30</v>
+        <v>1.433741384461053e-30</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>1.322781747865752e-30</v>
+        <v>1.340744247486133e-30</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>1.222541480178364e-30</v>
+        <v>1.239770959328929e-30</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>1.119972853204202e-30</v>
+        <v>1.136428843501308e-30</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>1.020665967703714e-30</v>
+        <v>1.036325223515146e-30</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>9.302109244370769e-31</v>
+        <v>9.450674228820482e-31</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>8.541978241648059e-31</v>
+        <v>8.682627651139569e-31</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>7.982167676471207e-31</v>
+        <v>8.115185737225184e-31</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>7.678578556444589e-31</v>
+        <v>7.804421722195984e-31</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>7.687111889171657e-31</v>
+        <v>7.806408841169706e-31</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>8.063668682255997e-31</v>
+        <v>8.177220329264195e-31</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>8.864149943301366e-31</v>
+        <v>8.972929421597495e-31</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>1.014445667991e-30</v>
+        <v>1.024960935328611e-30</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>1.196048989968777e-30</v>
+        <v>1.20633333594502e-30</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>1.438721402478922e-30</v>
+        <v>1.448960625212251e-30</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>1.773813558068979e-30</v>
+        <v>1.784708179315958e-30</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>2.248909933413523e-30</v>
+        <v>2.26198871444238e-30</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>2.911906146639453e-30</v>
+        <v>2.929532097152185e-30</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>3.810697815875777e-30</v>
+        <v>3.836068194008162e-30</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>4.99318055924984e-30</v>
+        <v>5.030326871571426e-30</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>6.450832823699027e-30</v>
+        <v>6.503649059510871e-30</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>7.659391690297721e-30</v>
+        <v>7.722750860090188e-30</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>7.818194210132625e-30</v>
+        <v>7.873187453403444e-30</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>7.011023756192649e-30</v>
+        <v>7.039271678979385e-30</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>7.22070128184598e-30</v>
+        <v>7.236830863423943e-30</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>8.086965475169247e-30</v>
+        <v>8.103498743283205e-30</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>8.955379194547843e-30</v>
+        <v>8.978207469744509e-30</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>9.230082634244113e-30</v>
+        <v>9.258804210917132e-30</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>8.932707737364536e-30</v>
+        <v>8.964187541357466e-30</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>8.455064662115759e-30</v>
+        <v>8.485568218828239e-30</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>8.190297948317103e-30</v>
+        <v>8.215545260566941e-30</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>8.255075023670674e-30</v>
+        <v>8.272113365644382e-30</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>8.314886384743707e-30</v>
+        <v>8.325068724575902e-30</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>8.210214535775039e-30</v>
+        <v>8.216673850219587e-30</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>7.966545906246261e-30</v>
+        <v>7.971811479994761e-30</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>7.615161007482276e-30</v>
+        <v>7.621083778765127e-30</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>7.187340350808607e-30</v>
+        <v>7.195092911394994e-30</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>6.714364447551056e-30</v>
+        <v>6.724441042748953e-30</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>6.227513809034115e-30</v>
+        <v>6.239730337690291e-30</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>5.756864446041923e-30</v>
+        <v>5.770394967368361e-30</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>5.315216546266259e-30</v>
+        <v>5.329116887304901e-30</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>4.902443358771833e-30</v>
+        <v>4.916042912893848e-30</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>4.518106403078669e-30</v>
+        <v>4.53101757809677e-30</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>4.161767198706686e-30</v>
+        <v>4.17388541687514e-30</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>3.83298726517485e-30</v>
+        <v>3.844490963189474e-30</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>3.531328122003366e-30</v>
+        <v>3.54267875100153e-30</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>3.256351288711299e-30</v>
+        <v>3.26829331427192e-30</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>3.007620499525545e-30</v>
+        <v>3.021180525020524e-30</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>2.78532746208942e-30</v>
+        <v>2.801565657654969e-30</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>2.591152185720452e-30</v>
+        <v>2.610573173067597e-30</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>2.426990305272974e-30</v>
+        <v>2.4494578065247e-30</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>2.294737455601215e-30</v>
+        <v>2.319474293292465e-30</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>2.195976883030212e-30</v>
+        <v>2.221594904929419e-30</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>2.127041173611692e-30</v>
+        <v>2.152044232366509e-30</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>2.079904241249237e-30</v>
+        <v>2.103105727279296e-30</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>2.046407949795275e-30</v>
+        <v>2.066943440841842e-30</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>2.018394163102393e-30</v>
+        <v>2.035721424228375e-30</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>1.987704745023057e-30</v>
+        <v>2.001603728612991e-30</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>1.946181559409799e-30</v>
+        <v>1.956754405169867e-30</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>1.886557172318809e-30</v>
+        <v>1.894213838055016e-30</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>1.810638433404508e-30</v>
+        <v>1.815950304463336e-30</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>1.725530983176291e-30</v>
+        <v>1.729145389888563e-30</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>1.638406863622659e-30</v>
+        <v>1.641046010084024e-30</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>1.556438116731871e-30</v>
+        <v>1.558899080802802e-30</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>1.486764449231241e-30</v>
+        <v>1.489917826360999e-30</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>1.431559368183959e-30</v>
+        <v>1.436140983592227e-30</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>1.382725144875084e-30</v>
+        <v>1.388905266745823e-30</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>1.331320043865457e-30</v>
+        <v>1.338678731836132e-30</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>1.274347573395407e-30</v>
+        <v>1.282273158087842e-30</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>1.213160896432767e-30</v>
+        <v>1.221141514748999e-30</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>1.149212702395012e-30</v>
+        <v>1.156842968270443e-30</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>1.083955680699677e-30</v>
+        <v>1.09093668510307e-30</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>1.018842520764118e-30</v>
+        <v>1.024981831697601e-30</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>9.553259120059264e-31</v>
+        <v>9.605375745049872e-31</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>8.948500428896097e-31</v>
+        <v>8.991539905404526e-31</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>8.382842779367757e-31</v>
+        <v>8.417665404058412e-31</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>7.855676224280721e-31</v>
+        <v>7.883159208855104e-31</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>7.365542640463806e-31</v>
+        <v>7.386521396260934e-31</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>6.910983904747282e-31</v>
+        <v>6.926252042743706e-31</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>6.490541893961278e-31</v>
+        <v>6.500851224771079e-31</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>6.102758484934809e-31</v>
+        <v>6.108819018809587e-31</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>5.746175554498041e-31</v>
+        <v>5.748655501326926e-31</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>5.419334979481025e-31</v>
+        <v>5.41886074879068e-31</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>5.120778636712944e-31</v>
+        <v>5.117934837667549e-31</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>4.849048403024106e-31</v>
+        <v>4.844377844425376e-31</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>4.602686155243797e-31</v>
+        <v>4.596689845530968e-31</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>4.380233770202042e-31</v>
+        <v>4.373370917451881e-31</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>4.180233124728781e-31</v>
+        <v>4.172921136655581e-31</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>4.001226095653426e-31</v>
+        <v>3.993840579609009e-31</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>3.841754559805938e-31</v>
+        <v>3.834629322779649e-31</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>3.700360394016205e-31</v>
+        <v>3.693787442634919e-31</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>3.575585475113747e-31</v>
+        <v>3.569815015641864e-31</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>3.465971679928466e-31</v>
+        <v>3.461212118267916e-31</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>3.370060885290214e-31</v>
+        <v>3.366478826980451e-31</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>3.286394968028591e-31</v>
+        <v>3.284115218246598e-31</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>3.21351580497352e-31</v>
+        <v>3.212621368533805e-31</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>3.149965272954641e-31</v>
+        <v>3.150497354309242e-31</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>3.094285248801795e-31</v>
+        <v>3.096243252040275e-31</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>3.045017609344751e-31</v>
+        <v>3.048359138194202e-31</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>3.000704231413321e-31</v>
+        <v>3.005345089238356e-31</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>2.959886991837192e-31</v>
+        <v>2.965701181639959e-31</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>2.921278736190767e-31</v>
+        <v>2.928104428986966e-31</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>2.884544449596831e-31</v>
+        <v>2.892217222811863e-31</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>2.849678624529334e-31</v>
+        <v>2.858042964824623e-31</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>2.816676071870964e-31</v>
+        <v>2.825585386259341e-31</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>2.785531602504323e-31</v>
+        <v>2.794848218350029e-31</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>2.756240027312101e-31</v>
+        <v>2.765835192330783e-31</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>2.728796157176983e-31</v>
+        <v>2.738550039435696e-31</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>2.703194802981581e-31</v>
+        <v>2.712996490898788e-31</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>2.67943077560858e-31</v>
+        <v>2.689178277954153e-31</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>2.65749888594066e-31</v>
+        <v>2.667099131835877e-31</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>2.637393944860443e-31</v>
+        <v>2.64676278377799e-31</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>2.619110763250624e-31</v>
+        <v>2.628172965014595e-31</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>2.602644151993832e-31</v>
+        <v>2.61133340677973e-31</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>2.587988921972744e-31</v>
+        <v>2.596247840307478e-31</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>2.575139884070031e-31</v>
+        <v>2.582919996831921e-31</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>2.564091849168332e-31</v>
+        <v>2.571353607587101e-31</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>2.554839628150318e-31</v>
+        <v>2.5615524038071e-31</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>2.547378031898658e-31</v>
+        <v>2.553520116725995e-31</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>2.541701871295997e-31</v>
+        <v>2.547260477577837e-31</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>2.537805957225004e-31</v>
+        <v>2.542777217596703e-31</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>2.53568510056834e-31</v>
+        <v>2.540074068016664e-31</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>2.535334112208663e-31</v>
+        <v>2.539154760071784e-31</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>2.536747803028633e-31</v>
+        <v>2.540023024996131e-31</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>2.539920983910913e-31</v>
+        <v>2.542682594023776e-31</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>2.544848465738164e-31</v>
+        <v>2.547137198388788e-31</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>2.55152505939304e-31</v>
+        <v>2.553390569325228e-31</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>2.559945575758212e-31</v>
+        <v>2.561446438067176e-31</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>2.570104825716338e-31</v>
+        <v>2.571308535848696e-31</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>2.581997620150064e-31</v>
+        <v>2.582980593903844e-31</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>2.595618769942074e-31</v>
+        <v>2.59646634346671e-31</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>2.610963085975018e-31</v>
+        <v>2.611769515771353e-31</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>2.628025379131541e-31</v>
+        <v>2.628893842051824e-31</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>2.646800460294333e-31</v>
+        <v>2.647843053542225e-31</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>2.667283140346022e-31</v>
+        <v>2.668620881476586e-31</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>2.689468230169306e-31</v>
+        <v>2.691231057089017e-31</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>2.713491410075406e-31</v>
+        <v>2.715812524996794e-31</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>2.740153976259219e-31</v>
+        <v>2.743143120572056e-31</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>2.770453629011368e-31</v>
+        <v>2.774189197466104e-31</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>2.805388097089812e-31</v>
+        <v>2.809917136654594e-31</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>2.845955109252392e-31</v>
+        <v>2.851293319113053e-31</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>2.893152394257085e-31</v>
+        <v>2.899284125817157e-31</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>2.947977680861762e-31</v>
+        <v>2.954855937742466e-31</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>3.011428697824268e-31</v>
+        <v>3.018975135864517e-31</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>3.084503173902622e-31</v>
+        <v>3.092608101159023e-31</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>3.168198837854676e-31</v>
+        <v>3.176721214601527e-31</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>3.263513418438244e-31</v>
+        <v>3.272280857167536e-31</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>3.371369669252431e-31</v>
+        <v>3.38017974561873e-31</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>3.491351105810677e-31</v>
+        <v>3.499994775284551e-31</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>3.621886407269652e-31</v>
+        <v>3.630168197516485e-31</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>3.761366411881773e-31</v>
+        <v>3.769105084412112e-31</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>3.908181957898977e-31</v>
+        <v>3.915210508068534e-31</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>4.060723883573713e-31</v>
+        <v>4.066889540583359e-31</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>4.217383027158033e-31</v>
+        <v>4.222547254053806e-31</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>4.376550226903978e-31</v>
+        <v>4.380588720577081e-31</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>4.536616321064018e-31</v>
+        <v>4.539419012250814e-31</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>4.695972147890194e-31</v>
+        <v>4.697443201172211e-31</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>4.853008545634549e-31</v>
+        <v>4.85306635943848e-31</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>5.006116352549549e-31</v>
+        <v>5.004693559147251e-31</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>5.153686406887236e-31</v>
+        <v>5.150729872395726e-31</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>5.294109546899672e-31</v>
+        <v>5.289580371281134e-31</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>5.425776610839289e-31</v>
+        <v>5.419650127901068e-31</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>5.54841819459922e-31</v>
+        <v>5.54068827032256e-31</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>5.667946037116657e-31</v>
+        <v>5.658644900545449e-31</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>5.792053274698689e-31</v>
+        <v>5.781257233175771e-31</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>5.928433209931548e-31</v>
+        <v>5.916262649632177e-31</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>6.084779145401838e-31</v>
+        <v>6.071398531333688e-31</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>6.26878438369581e-31</v>
+        <v>6.254402259698971e-31</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>6.488142227399607e-31</v>
+        <v>6.473011216146594e-31</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>6.75054597909999e-31</v>
+        <v>6.734962782095728e-31</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>7.063681186717738e-31</v>
+        <v>7.047986425293514e-31</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>7.432831197591588e-31</v>
+        <v>7.41736015682054e-31</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>7.85748845066542e-31</v>
+        <v>7.842452339289199e-31</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>8.336290319226329e-31</v>
+        <v>8.321758736903449e-31</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>8.867874176561204e-31</v>
+        <v>8.85377511386705e-31</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>9.450877395958406e-31</v>
+        <v>9.436997234385232e-31</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>1.008393735070488e-30</v>
+        <v>1.00699208626618e-30</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>1.076569141408739e-30</v>
+        <v>1.075104176290039e-30</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>1.149477695939456e-30</v>
+        <v>1.14788556993065e-30</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>1.226921613765007e-30</v>
+        <v>1.225126729017689e-30</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>1.307952382656474e-30</v>
+        <v>1.305896767315816e-30</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>1.391119726565047e-30</v>
+        <v>1.388782670997552e-30</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>1.474964187878272e-30</v>
+        <v>1.47236260398679e-30</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>1.558026308983922e-30</v>
+        <v>1.555214730207648e-30</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>1.638846632269542e-30</v>
+        <v>1.635917213584018e-30</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>1.715965700122687e-30</v>
+        <v>1.713048218039799e-30</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>1.787924054931116e-30</v>
+        <v>1.785185907499099e-30</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>1.85326223908238e-30</v>
+        <v>1.850908445885814e-30</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>1.910485550005133e-30</v>
+        <v>1.908753518411162e-30</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>1.957597531143404e-30</v>
+        <v>1.956682547580613e-30</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>1.992228170121864e-30</v>
+        <v>1.992227928340734e-30</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>2.011998550942413e-30</v>
+        <v>2.012911829858302e-30</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>2.014529757606848e-30</v>
+        <v>2.016256421299988e-30</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>1.997442874117032e-30</v>
+        <v>1.999783871832523e-30</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>1.95836042839536e-30</v>
+        <v>1.961017823802146e-30</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>1.897247715431971e-30</v>
+        <v>1.899872159413592e-30</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>1.821176895315717e-30</v>
+        <v>1.823511636326467e-30</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>1.738562685217409e-30</v>
+        <v>1.740470774262425e-30</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>1.657819801686396e-30</v>
+        <v>1.659284092313435e-30</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>1.585676851865279e-30</v>
+        <v>1.586777679196966e-30</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>1.522262557777132e-30</v>
+        <v>1.523090368247615e-30</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>1.466091037039796e-30</v>
+        <v>1.466725014020871e-30</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>1.415676407270893e-30</v>
+        <v>1.416184471072004e-30</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>1.369532786088201e-30</v>
+        <v>1.369971593956433e-30</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>1.326174291109444e-30</v>
+        <v>1.326589237229531e-30</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>1.28411503995238e-30</v>
+        <v>1.284540255446703e-30</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>1.24186915023466e-30</v>
+        <v>1.242327503163245e-30</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>1.197950739574087e-30</v>
+        <v>1.198453834934604e-30</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>1.151123479712093e-30</v>
+        <v>1.151672734711794e-30</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>1.101588001612608e-30</v>
+        <v>1.102180837198643e-30</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>1.050058210260937e-30</v>
+        <v>1.050690262701317e-30</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>9.972486512280627e-31</v>
+        <v>9.979137748718004e-31</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>9.438738700851094e-31</v>
+        <v>9.445641373622175e-31</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>8.906484124032018e-31</v>
+        <v>8.913541138246936e-31</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>8.38286823753321e-31</v>
+        <v>8.389964679112113e-31</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>7.875036497065926e-31</v>
+        <v>7.882039632738963e-31</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>7.390099675526097e-31</v>
+        <v>7.396859148295548e-31</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>6.931805734746892e-31</v>
+        <v>6.938172515698638e-31</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>6.49777793372196e-31</v>
+        <v>6.503638839044573e-31</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>6.084989424831806e-31</v>
+        <v>6.090270779625693e-31</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>5.690413360458105e-31</v>
+        <v>5.695080998735514e-31</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>5.31102289298247e-31</v>
+        <v>5.315082157667495e-31</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>4.943791174785502e-31</v>
+        <v>4.947286917714071e-31</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>4.585691358248826e-31</v>
+        <v>4.588707940168705e-31</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>4.233696595754035e-31</v>
+        <v>4.236357886324837e-31</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>3.884918009569366e-31</v>
+        <v>3.887385487470745e-31</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>3.539738078894414e-31</v>
+        <v>3.542165784140035e-31</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>3.201866057171014e-31</v>
+        <v>3.204354780307467e-31</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>2.875160252170481e-31</v>
+        <v>2.877755481748985e-31</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>2.563478971665323e-31</v>
+        <v>2.566170894241726e-31</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>2.270680523426902e-31</v>
+        <v>2.273404023561677e-31</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>2.000623215227435e-31</v>
+        <v>2.003257875485684e-31</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>1.757165354839056e-31</v>
+        <v>1.759535455790507e-31</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>1.544165250033249e-31</v>
+        <v>1.54603977025226e-31</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>1.365152807190004e-31</v>
+        <v>1.366279494489652e-31</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>1.222239498043277e-31</v>
+        <v>1.222492030297511e-31</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>1.117153920265107e-31</v>
+        <v>1.116571628114223e-31</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>1.051626000930201e-31</v>
+        <v>1.050412875155118e-31</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>1.027471859817873e-31</v>
+        <v>1.025932440410829e-31</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>1.045504434815413e-31</v>
+        <v>1.043935714692217e-31</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>1.099252271675429e-31</v>
+        <v>1.097895971478011e-31</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>1.179369191691663e-31</v>
+        <v>1.178396542696265e-31</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>1.276502065059416e-31</v>
+        <v>1.276013772381585e-31</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>1.381275769778e-31</v>
+        <v>1.381302699680912e-31</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>1.483807082592565e-31</v>
+        <v>1.484326141857143e-31</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>1.573703408674285e-31</v>
+        <v>1.57465346366984e-31</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>1.640549906933447e-31</v>
+        <v>1.641832478866121e-31</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>1.673931736280604e-31</v>
+        <v>1.675411001193373e-31</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>1.663442329997645e-31</v>
+        <v>1.664945126754916e-31</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>1.607274940528836e-31</v>
+        <v>1.608599069470551e-31</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>1.528485341495101e-31</v>
+        <v>1.529423556274166e-31</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>1.454596067618485e-31</v>
+        <v>1.45494038553621e-31</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>1.411703595030459e-31</v>
+        <v>1.411252030516341e-31</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>1.399148646408402e-31</v>
+        <v>1.397831544766963e-31</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>1.392496834888461e-31</v>
+        <v>1.390489132216538e-31</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>1.366486451910539e-31</v>
+        <v>1.364211581496329e-31</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>1.301561144153902e-31</v>
+        <v>1.299620761389329e-31</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>1.202316371360806e-31</v>
+        <v>1.20119286643208e-31</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>1.079737306968839e-31</v>
+        <v>1.079715100258571e-31</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>9.448091650894163e-32</v>
+        <v>9.459747066756298e-32</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>8.085171598340004e-32</v>
+        <v>8.107589294901222e-32</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>6.818457452037538e-32</v>
+        <v>6.848542688407964e-32</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>5.730539696206877e-32</v>
+        <v>5.763807733811627e-32</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>4.815518409031262e-32</v>
+        <v>4.848008675046361e-32</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>4.049565290787357e-32</v>
+        <v>4.078229192446237e-32</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>3.408852041754363e-32</v>
+        <v>3.43155296634786e-32</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>2.869550362211024e-32</v>
+        <v>2.885063677087389e-32</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>2.407831952434684e-32</v>
+        <v>2.415845004999563e-32</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>1.999868946661134e-32</v>
+        <v>2.000981066645257e-32</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>1.642067708981304e-32</v>
+        <v>1.637894924237322e-32</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>1.377720066221152e-32</v>
+        <v>1.370750995879143e-32</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>1.197921267029747e-32</v>
+        <v>1.190270139105988e-32</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>1.083095353589165e-32</v>
+        <v>1.07629624230247e-32</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>1.013666368081206e-32</v>
+        <v>1.008673193852932e-32</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>9.700583526880314e-33</v>
+        <v>9.672448821420696e-33</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>9.353826579761293e-33</v>
+        <v>9.346245796419102e-33</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>9.054917156017093e-33</v>
+        <v>9.065557776824309e-33</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>8.800101457668611e-33</v>
+        <v>8.8266936622424e-33</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>8.585631477413444e-33</v>
+        <v>8.625968319814904e-33</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>8.407759207949892e-33</v>
+        <v>8.459696616684019e-33</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>8.262736641976119e-33</v>
+        <v>8.324193419991812e-33</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>8.146815772189917e-33</v>
+        <v>8.215773596880002e-33</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>8.056248591289483e-33</v>
+        <v>8.130752014490685e-33</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>7.987287091972925e-33</v>
+        <v>8.065443539965874e-33</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>7.936183266938165e-33</v>
+        <v>8.016163040447414e-33</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>7.899189108883358e-33</v>
+        <v>7.979225383077362e-33</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>7.87256034818739e-33</v>
+        <v>7.950949385781969e-33</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>7.853270953664867e-33</v>
+        <v>7.928413055205497e-33</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>7.83986241037532e-33</v>
+        <v>7.910351285996687e-33</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>7.831082982839987e-33</v>
+        <v>7.895717541773334e-33</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>7.825680935580138e-33</v>
+        <v>7.883465286153287e-33</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>7.822404533117041e-33</v>
+        <v>7.87254798275439e-33</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>7.820002039971946e-33</v>
+        <v>7.861919095194448e-33</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>7.817221720666118e-33</v>
+        <v>7.850532087091309e-33</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>7.812811839720818e-33</v>
+        <v>7.837340422062808e-33</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>7.805520661657306e-33</v>
+        <v>7.821297563726762e-33</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>7.794096450996851e-33</v>
+        <v>7.801356975701027e-33</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>7.777287472260698e-33</v>
+        <v>7.776472121603403e-33</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>7.753841989970111e-33</v>
+        <v>7.745596465051731e-33</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>7.722508268646382e-33</v>
+        <v>7.707683469663883e-33</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>7.682034572810715e-33</v>
+        <v>7.661686599057619e-33</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>7.631169166984395e-33</v>
+        <v>7.606559316850805e-33</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>7.568660315688741e-33</v>
+        <v>7.541255086661329e-33</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>7.493256283444908e-33</v>
+        <v>7.464727372106913e-33</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>7.403705334774199e-33</v>
+        <v>7.375929636805434e-33</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>7.300096052173679e-33</v>
+        <v>7.275064393602689e-33</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>7.188699125999692e-33</v>
+        <v>7.168095293513297e-33</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>7.077566460187775e-33</v>
+        <v>7.062645909664471e-33</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>6.974750124064122e-33</v>
+        <v>6.966339969311825e-33</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>6.888302186955235e-33</v>
+        <v>6.886801199711255e-33</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>6.826274718187518e-33</v>
+        <v>6.83165332811857e-33</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>6.796719787087377e-33</v>
+        <v>6.808520081789576e-33</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>6.807689462981156e-33</v>
+        <v>6.825025187980033e-33</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>6.867235815195215e-33</v>
+        <v>6.888792373945698e-33</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>6.98341091305606e-33</v>
+        <v>7.007445366942485e-33</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>7.164266825890062e-33</v>
+        <v>7.188607894226168e-33</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>7.417855623023351e-33</v>
+        <v>7.439903683052287e-33</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>7.752229373782785e-33</v>
+        <v>7.768956460677094e-33</v>
       </c>
     </row>
   </sheetData>
